--- a/tabular/contributed/190612 PTV TABLE.xlsx
+++ b/tabular/contributed/190612 PTV TABLE.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="PTV" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="127">
   <si>
     <t>gene</t>
   </si>
@@ -122,9 +122,6 @@
     <t>6a</t>
   </si>
   <si>
-    <t>4 no ST</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -137,18 +134,12 @@
     <t>NS3</t>
   </si>
   <si>
-    <t>D168H</t>
-  </si>
-  <si>
     <t>PTV</t>
   </si>
   <si>
     <t>vitro</t>
   </si>
   <si>
-    <t>D168V</t>
-  </si>
-  <si>
     <t>real world study</t>
   </si>
   <si>
@@ -167,24 +158,6 @@
     <t>PrOD+/-RBV</t>
   </si>
   <si>
-    <t>D168A</t>
-  </si>
-  <si>
-    <t>Y56H+D168Y</t>
-  </si>
-  <si>
-    <t>R155K+D168V</t>
-  </si>
-  <si>
-    <t>V36M+R155K</t>
-  </si>
-  <si>
-    <t>D168Y</t>
-  </si>
-  <si>
-    <t>V36A+R155K</t>
-  </si>
-  <si>
     <t>non cirrhotic; TN and TE</t>
   </si>
   <si>
@@ -203,12 +176,6 @@
     <t>4d</t>
   </si>
   <si>
-    <t xml:space="preserve">Y56H </t>
-  </si>
-  <si>
-    <t>Y56H+D168V</t>
-  </si>
-  <si>
     <t>TN; non cirrhotic</t>
   </si>
   <si>
@@ -218,30 +185,15 @@
     <t>TN&amp;TE: non cirrhotic and cirrhotic</t>
   </si>
   <si>
-    <t>D168E</t>
-  </si>
-  <si>
-    <t>Y56H+D168A</t>
-  </si>
-  <si>
-    <t>Q80K</t>
-  </si>
-  <si>
     <t>TN &amp; TE; noncirrhotic and cirrhotic</t>
   </si>
   <si>
-    <t>Q80K+R155K</t>
-  </si>
-  <si>
     <t>PrOD +/- RBV</t>
   </si>
   <si>
     <t>PrOD+RBV</t>
   </si>
   <si>
-    <t>R155K</t>
-  </si>
-  <si>
     <t>Turquoise II</t>
   </si>
   <si>
@@ -269,60 +221,12 @@
     <t xml:space="preserve">TE, cirrhotic </t>
   </si>
   <si>
-    <t>2 (no ST)</t>
-  </si>
-  <si>
     <t>TE, cirrhotic and noncirrhoitc</t>
   </si>
   <si>
-    <t xml:space="preserve">V36A </t>
-  </si>
-  <si>
-    <t>V36L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V36M </t>
-  </si>
-  <si>
-    <t>F43L</t>
-  </si>
-  <si>
-    <t>Q80R</t>
-  </si>
-  <si>
-    <t>R155G</t>
-  </si>
-  <si>
-    <t>R155S</t>
-  </si>
-  <si>
-    <t>R155T</t>
-  </si>
-  <si>
-    <t>R155W</t>
-  </si>
-  <si>
-    <t>A156T</t>
-  </si>
-  <si>
-    <t>D168N</t>
-  </si>
-  <si>
-    <t>D168T</t>
-  </si>
-  <si>
-    <t>Q80L</t>
-  </si>
-  <si>
-    <t>A156V</t>
-  </si>
-  <si>
     <t>145-224</t>
   </si>
   <si>
-    <t>A156L</t>
-  </si>
-  <si>
     <t>39-70</t>
   </si>
   <si>
@@ -338,115 +242,175 @@
     <t>10-100</t>
   </si>
   <si>
-    <t>Y56H</t>
-  </si>
-  <si>
     <t>&gt;100</t>
   </si>
   <si>
     <t>real world, retrospective</t>
   </si>
   <si>
-    <t>R123Q</t>
-  </si>
-  <si>
-    <t>I132V</t>
-  </si>
-  <si>
-    <t>A156S</t>
-  </si>
-  <si>
-    <t>I177V</t>
-  </si>
-  <si>
-    <t>T54S+A156S</t>
-  </si>
-  <si>
-    <t>T54S+A156S+I177V</t>
-  </si>
-  <si>
-    <t>A156S+I177V</t>
-  </si>
-  <si>
-    <t>A156G</t>
-  </si>
-  <si>
-    <t>Q168R</t>
-  </si>
-  <si>
-    <t>A155K</t>
-  </si>
-  <si>
-    <t>V36A</t>
-  </si>
-  <si>
-    <t>F43C</t>
-  </si>
-  <si>
-    <t>V158I</t>
-  </si>
-  <si>
-    <t>E30V+A156S</t>
-  </si>
-  <si>
-    <t>I18V+R155K</t>
-  </si>
-  <si>
-    <t>T54S+R155K</t>
-  </si>
-  <si>
-    <t>R155K+Q168R</t>
-  </si>
-  <si>
-    <t>R117L+A156S</t>
-  </si>
-  <si>
-    <t>T54A+V158I</t>
-  </si>
-  <si>
-    <t>T54A+PA156S</t>
-  </si>
-  <si>
-    <t>A166S</t>
-  </si>
-  <si>
     <t>PIB/PTV/r/RBV</t>
   </si>
   <si>
     <t>Phase 2, non cirrhotic</t>
   </si>
   <si>
-    <t>R155Q</t>
-  </si>
-  <si>
-    <t>R156G</t>
-  </si>
-  <si>
-    <t>D/Q168A</t>
-  </si>
-  <si>
-    <t>D/Q168E</t>
-  </si>
-  <si>
-    <t>D168G</t>
-  </si>
-  <si>
-    <t>D/Q168H</t>
-  </si>
-  <si>
-    <t>D/Q168N</t>
-  </si>
-  <si>
-    <t>D/Q168V</t>
-  </si>
-  <si>
-    <t>NK</t>
-  </si>
-  <si>
     <t>prev PR; cirrhosis</t>
   </si>
   <si>
     <t xml:space="preserve">Phase 2 </t>
+  </si>
+  <si>
+    <t>168H</t>
+  </si>
+  <si>
+    <t>168V</t>
+  </si>
+  <si>
+    <t>168A</t>
+  </si>
+  <si>
+    <t>56H+168Y</t>
+  </si>
+  <si>
+    <t>155K+168V</t>
+  </si>
+  <si>
+    <t>36M+155K</t>
+  </si>
+  <si>
+    <t>168Y</t>
+  </si>
+  <si>
+    <t>36A+155K</t>
+  </si>
+  <si>
+    <t>56H+168V</t>
+  </si>
+  <si>
+    <t>168E</t>
+  </si>
+  <si>
+    <t>56H+168A</t>
+  </si>
+  <si>
+    <t>80K</t>
+  </si>
+  <si>
+    <t>80K+155K</t>
+  </si>
+  <si>
+    <t>155K</t>
+  </si>
+  <si>
+    <t>36L</t>
+  </si>
+  <si>
+    <t>43L</t>
+  </si>
+  <si>
+    <t>80L</t>
+  </si>
+  <si>
+    <t>80R</t>
+  </si>
+  <si>
+    <t>155G</t>
+  </si>
+  <si>
+    <t>155S</t>
+  </si>
+  <si>
+    <t>155T</t>
+  </si>
+  <si>
+    <t>155W</t>
+  </si>
+  <si>
+    <t>156T</t>
+  </si>
+  <si>
+    <t>168N</t>
+  </si>
+  <si>
+    <t>168T</t>
+  </si>
+  <si>
+    <t>156L</t>
+  </si>
+  <si>
+    <t>156V</t>
+  </si>
+  <si>
+    <t>56H</t>
+  </si>
+  <si>
+    <t>123Q</t>
+  </si>
+  <si>
+    <t>132V</t>
+  </si>
+  <si>
+    <t>156S</t>
+  </si>
+  <si>
+    <t>177V</t>
+  </si>
+  <si>
+    <t>54S+156S</t>
+  </si>
+  <si>
+    <t>54S+156S+177V</t>
+  </si>
+  <si>
+    <t>156S+177V</t>
+  </si>
+  <si>
+    <t>156G</t>
+  </si>
+  <si>
+    <t>168R</t>
+  </si>
+  <si>
+    <t>36A</t>
+  </si>
+  <si>
+    <t>43C</t>
+  </si>
+  <si>
+    <t>158I</t>
+  </si>
+  <si>
+    <t>18V+155K</t>
+  </si>
+  <si>
+    <t>30V+156S</t>
+  </si>
+  <si>
+    <t>54S+155K</t>
+  </si>
+  <si>
+    <t>155K+168R</t>
+  </si>
+  <si>
+    <t>117L+156S</t>
+  </si>
+  <si>
+    <t>54A+158I</t>
+  </si>
+  <si>
+    <t>166S</t>
+  </si>
+  <si>
+    <t>155Q</t>
+  </si>
+  <si>
+    <t>168G</t>
+  </si>
+  <si>
+    <t>36M</t>
+  </si>
+  <si>
+    <t>54A+156S</t>
   </si>
 </sst>
 </file>
@@ -881,18 +845,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O146" sqref="O146"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="14"/>
-    <col min="3" max="3" width="19.1640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="14"/>
     <col min="4" max="8" width="8.83203125" style="14" customWidth="1"/>
     <col min="9" max="9" width="16" style="14" customWidth="1"/>
     <col min="10" max="10" width="28.33203125" style="14" customWidth="1"/>
@@ -909,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
@@ -956,25 +921,25 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>76</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>24</v>
@@ -982,14 +947,14 @@
       <c r="I2" s="2"/>
       <c r="J2" s="6"/>
       <c r="K2" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="7">
         <v>30882744</v>
@@ -998,13 +963,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1016,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>24</v>
@@ -1024,14 +989,14 @@
       <c r="I3" s="2"/>
       <c r="J3" s="6"/>
       <c r="K3" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="8">
         <v>30485638</v>
@@ -1040,13 +1005,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1058,7 +1023,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>24</v>
@@ -1066,7 +1031,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>21</v>
@@ -1080,13 +1045,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1098,17 +1063,17 @@
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>21</v>
@@ -1122,13 +1087,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -1140,20 +1105,20 @@
         <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="6"/>
@@ -1164,13 +1129,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -1182,20 +1147,20 @@
         <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="6"/>
@@ -1206,13 +1171,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -1224,20 +1189,20 @@
         <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="6"/>
@@ -1248,13 +1213,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1266,20 +1231,20 @@
         <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="6"/>
@@ -1290,13 +1255,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -1308,20 +1273,20 @@
         <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="6"/>
@@ -1332,13 +1297,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
@@ -1350,20 +1315,20 @@
         <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="6"/>
@@ -1374,13 +1339,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -1392,20 +1357,20 @@
         <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="6"/>
@@ -1416,13 +1381,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -1434,20 +1399,20 @@
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="6"/>
@@ -1458,13 +1423,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
@@ -1476,20 +1441,20 @@
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="6"/>
@@ -1500,13 +1465,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
@@ -1518,20 +1483,20 @@
         <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="6"/>
@@ -1542,20 +1507,20 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2">
         <v>313</v>
@@ -1572,20 +1537,20 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I17" s="2">
         <v>8</v>
@@ -1602,20 +1567,20 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I18" s="2">
         <v>313</v>
@@ -1632,20 +1597,20 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I19" s="13">
         <v>12533</v>
@@ -1662,13 +1627,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
@@ -1687,13 +1652,13 @@
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="6"/>
@@ -1704,13 +1669,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -1729,13 +1694,13 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="6"/>
@@ -1746,13 +1711,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
@@ -1771,13 +1736,13 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="6"/>
@@ -1788,13 +1753,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
@@ -1813,13 +1778,13 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="6"/>
@@ -1830,20 +1795,20 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I24" s="2">
         <v>27</v>
@@ -1860,20 +1825,20 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I25" s="2">
         <v>4</v>
@@ -1890,20 +1855,20 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I26" s="2">
         <v>159</v>
@@ -1920,20 +1885,20 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I27" s="2">
         <v>700</v>
@@ -1950,20 +1915,20 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I28" s="13">
         <v>2472</v>
@@ -1980,13 +1945,13 @@
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>17</v>
@@ -2001,32 +1966,32 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>17</v>
@@ -2041,32 +2006,32 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>17</v>
@@ -2080,35 +2045,35 @@
         <v>24</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>18</v>
@@ -2123,13 +2088,13 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="2"/>
@@ -2142,13 +2107,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>18</v>
@@ -2163,13 +2128,13 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="2"/>
@@ -2180,13 +2145,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
@@ -2201,13 +2166,13 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="2"/>
@@ -2218,13 +2183,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
@@ -2239,13 +2204,13 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="2"/>
@@ -2256,13 +2221,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
@@ -2277,13 +2242,13 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="2"/>
@@ -2294,13 +2259,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
@@ -2315,13 +2280,13 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="2" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="2"/>
@@ -2332,13 +2297,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>18</v>
@@ -2353,13 +2318,13 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="2" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="2"/>
@@ -2370,20 +2335,20 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I39" s="2">
         <v>3</v>
@@ -2400,20 +2365,20 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I40" s="2">
         <v>2</v>
@@ -2430,20 +2395,20 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I41" s="2">
         <v>2</v>
@@ -2460,20 +2425,20 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I42" s="2">
         <v>20</v>
@@ -2490,20 +2455,20 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I43" s="2">
         <v>3</v>
@@ -2520,20 +2485,20 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I44" s="2">
         <v>2</v>
@@ -2550,20 +2515,20 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I45" s="2">
         <v>2</v>
@@ -2580,20 +2545,20 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I46" s="2">
         <v>14</v>
@@ -2610,20 +2575,20 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I47" s="2">
         <v>37</v>
@@ -2640,20 +2605,20 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I48" s="2">
         <v>7</v>
@@ -2670,20 +2635,20 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I49" s="2">
         <v>7</v>
@@ -2700,20 +2665,20 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I50" s="2">
         <v>11</v>
@@ -2730,20 +2695,20 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I51" s="2">
         <v>17</v>
@@ -2760,20 +2725,20 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I52" s="2">
         <v>50</v>
@@ -2790,20 +2755,20 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I53" s="2">
         <v>14</v>
@@ -2820,20 +2785,20 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I54" s="2">
         <v>62</v>
@@ -2850,20 +2815,20 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I55" s="2">
         <v>13</v>
@@ -2880,20 +2845,20 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I56" s="2">
         <v>96</v>
@@ -2910,20 +2875,20 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I57" s="2">
         <v>219</v>
@@ -2940,20 +2905,20 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I58" s="2">
         <v>79</v>
@@ -2970,20 +2935,20 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I59" s="2">
         <v>19</v>
@@ -3000,20 +2965,20 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I60" s="2">
         <v>40</v>
@@ -3030,20 +2995,20 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I61" s="2">
         <v>7</v>
@@ -3060,20 +3025,20 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I62" s="2">
         <v>27</v>
@@ -3090,20 +3055,20 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I63" s="2">
         <v>4</v>
@@ -3120,20 +3085,20 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I64" s="2">
         <v>76</v>
@@ -3150,20 +3115,20 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I65" s="2">
         <v>49</v>
@@ -3180,20 +3145,20 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I66" s="2">
         <v>159</v>
@@ -3210,20 +3175,20 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I67" s="2">
         <v>337</v>
@@ -3240,23 +3205,23 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -3270,23 +3235,23 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3300,20 +3265,20 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I70" s="2">
         <v>73</v>
@@ -3330,23 +3295,23 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -3360,23 +3325,23 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -3390,23 +3355,23 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -3420,20 +3385,20 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I74" s="2">
         <v>2</v>
@@ -3450,20 +3415,20 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I75" s="2">
         <v>2</v>
@@ -3480,20 +3445,20 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I76" s="2">
         <v>3</v>
@@ -3510,20 +3475,20 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I77" s="2">
         <v>2</v>
@@ -3540,13 +3505,13 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>18</v>
@@ -3561,10 +3526,10 @@
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -3576,23 +3541,23 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -3606,13 +3571,13 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>18</v>
@@ -3627,10 +3592,10 @@
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -3642,23 +3607,23 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -3672,13 +3637,13 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>18</v>
@@ -3693,10 +3658,10 @@
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -3708,13 +3673,13 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>18</v>
@@ -3729,10 +3694,10 @@
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -3744,23 +3709,23 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -3774,13 +3739,13 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="5">
+        <v>33</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="5">
         <v>4</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>18</v>
@@ -3795,10 +3760,10 @@
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -3810,13 +3775,13 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="5">
+        <v>33</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="5">
         <v>4</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>18</v>
@@ -3831,10 +3796,10 @@
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -3846,23 +3811,23 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="5">
+        <v>33</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="5">
         <v>4</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -3876,20 +3841,20 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I88" s="2">
         <v>2.9</v>
@@ -3906,20 +3871,20 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I89" s="2">
         <v>2.6</v>
@@ -3936,20 +3901,20 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I90" s="2">
         <v>2.7</v>
@@ -3966,20 +3931,20 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I91" s="2">
         <v>2</v>
@@ -3996,20 +3961,20 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I92" s="2">
         <v>2.2999999999999998</v>
@@ -4026,20 +3991,20 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I93" s="2">
         <v>3.7</v>
@@ -4056,20 +4021,20 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I94" s="2">
         <v>2</v>
@@ -4086,20 +4051,20 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I95" s="2">
         <v>3.5</v>
@@ -4116,20 +4081,20 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I96" s="2">
         <v>15.2</v>
@@ -4146,20 +4111,20 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I97" s="2">
         <v>6</v>
@@ -4176,20 +4141,20 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I98" s="2">
         <v>5.8</v>
@@ -4206,20 +4171,20 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I99" s="2">
         <v>45.6</v>
@@ -4236,20 +4201,20 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I100" s="2">
         <v>3</v>
@@ -4266,20 +4231,20 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I101" s="2">
         <v>2.5</v>
@@ -4296,20 +4261,20 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I102" s="2">
         <v>2.9</v>
@@ -4326,20 +4291,20 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I103" s="2">
         <v>14.1</v>
@@ -4356,20 +4321,20 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I104" s="2">
         <v>5.7</v>
@@ -4386,20 +4351,20 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I105" s="2">
         <v>14</v>
@@ -4416,20 +4381,20 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I106" s="2">
         <v>2.6</v>
@@ -4446,20 +4411,20 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I107" s="2">
         <v>3.7</v>
@@ -4476,20 +4441,20 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I108" s="2">
         <v>2.7</v>
@@ -4506,20 +4471,20 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I109" s="2">
         <v>3.8</v>
@@ -4536,13 +4501,13 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>17</v>
@@ -4558,10 +4523,10 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2">
@@ -4571,20 +4536,20 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I111" s="5">
         <v>45</v>
@@ -4601,20 +4566,20 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I112" s="5">
         <v>46</v>
@@ -4631,20 +4596,20 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I113" s="5">
         <v>7</v>
@@ -4661,20 +4626,20 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I114" s="5">
         <v>95</v>
@@ -4691,20 +4656,20 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I115" s="5">
         <v>4</v>
@@ -4721,20 +4686,20 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I116" s="5">
         <v>30</v>
@@ -4751,20 +4716,20 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I117" s="5">
         <v>2</v>
@@ -4781,20 +4746,20 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I118" s="5">
         <v>4</v>
@@ -4811,20 +4776,20 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I119" s="5">
         <v>2</v>
@@ -4841,20 +4806,20 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I120" s="5">
         <v>2</v>
@@ -4871,20 +4836,20 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I121" s="2">
         <v>2</v>
@@ -4901,20 +4866,20 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I122" s="2">
         <v>9</v>
@@ -4931,20 +4896,20 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I123" s="2">
         <v>2</v>
@@ -4961,20 +4926,20 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I124" s="2">
         <v>2</v>
@@ -4991,20 +4956,20 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I125" s="2">
         <v>8</v>
@@ -5021,20 +4986,20 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I126" s="2">
         <v>6</v>
@@ -5051,20 +5016,20 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I127" s="2">
         <v>951</v>
@@ -5081,20 +5046,20 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I128" s="2">
         <v>19</v>
@@ -5111,20 +5076,20 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I129" s="2">
         <v>223</v>
@@ -5141,20 +5106,20 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I130" s="2">
         <v>109</v>
@@ -5171,20 +5136,20 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I131" s="2">
         <v>6</v>
@@ -5201,20 +5166,20 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I132" s="2">
         <v>15</v>
@@ -5231,20 +5196,20 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I133" s="2">
         <v>3</v>
@@ -5261,20 +5226,20 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I134" s="2">
         <v>5</v>
@@ -5291,20 +5256,20 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I135" s="2">
         <v>22</v>
@@ -5321,20 +5286,20 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I136" s="2">
         <v>23</v>
@@ -5351,20 +5316,20 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I137" s="2">
         <v>2</v>
@@ -5381,20 +5346,20 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I138" s="2">
         <v>114</v>
@@ -5411,20 +5376,20 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I139" s="2">
         <v>3</v>
@@ -5441,20 +5406,20 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I140" s="2">
         <v>4</v>
@@ -5471,20 +5436,20 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I141" s="2">
         <v>3</v>
@@ -5501,20 +5466,20 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I142" s="2">
         <v>29</v>
@@ -5531,20 +5496,20 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I143" s="2">
         <v>4</v>
@@ -5561,20 +5526,20 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B144" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I144" s="2">
         <v>254</v>
@@ -5591,20 +5556,20 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B145" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I145" s="2">
         <v>165</v>
@@ -5619,82 +5584,6 @@
       </c>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K146" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L146" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2">
-        <v>24725237</v>
-      </c>
-      <c r="P146" s="2"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K147" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L147" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2">
-        <v>24725237</v>
-      </c>
-      <c r="P147" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabular/contributed/190612 PTV TABLE.xlsx
+++ b/tabular/contributed/190612 PTV TABLE.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="3280" windowWidth="32200" windowHeight="24220"/>
+    <workbookView xWindow="6320" yWindow="3240" windowWidth="42580" windowHeight="24220"/>
   </bookViews>
   <sheets>
     <sheet name="PTV" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PTV!$H$1:$H$145</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="128">
   <si>
     <t>gene</t>
   </si>
@@ -56,9 +59,6 @@
     <t>vitroOrVivo</t>
   </si>
   <si>
-    <t>ec50 fold change</t>
-  </si>
-  <si>
     <t>clinicalTrialName</t>
   </si>
   <si>
@@ -125,9 +125,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>PrOD/RBV</t>
-  </si>
-  <si>
     <t>case report</t>
   </si>
   <si>
@@ -149,75 +146,36 @@
     <t>122R</t>
   </si>
   <si>
-    <t>PrOD</t>
-  </si>
-  <si>
-    <t>PEARL III, IV</t>
-  </si>
-  <si>
-    <t>PrOD+/-RBV</t>
-  </si>
-  <si>
     <t>non cirrhotic; TN and TE</t>
   </si>
   <si>
     <t>AVIATOR</t>
   </si>
   <si>
-    <t xml:space="preserve">PrO </t>
-  </si>
-  <si>
     <t>non cirrhotic and cirrhotic; TE</t>
   </si>
   <si>
-    <t xml:space="preserve">PEARL I </t>
-  </si>
-  <si>
     <t>4d</t>
   </si>
   <si>
     <t>TN; non cirrhotic</t>
   </si>
   <si>
-    <t>M12-536 &amp; GIFT-I</t>
-  </si>
-  <si>
     <t>TN&amp;TE: non cirrhotic and cirrhotic</t>
   </si>
   <si>
     <t>TN &amp; TE; noncirrhotic and cirrhotic</t>
   </si>
   <si>
-    <t>PrOD +/- RBV</t>
-  </si>
-  <si>
     <t>PrOD+RBV</t>
   </si>
   <si>
-    <t>Turquoise II</t>
-  </si>
-  <si>
-    <t>Sapphire II, Turquoise II, Pearl IV</t>
-  </si>
-  <si>
     <t>Pooled</t>
   </si>
   <si>
-    <t>Sarrazin, EASL Paris, 23-24 Sep, 2016</t>
-  </si>
-  <si>
-    <t>PrO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapphire II </t>
-  </si>
-  <si>
     <t>TE, non cirrhotic</t>
   </si>
   <si>
-    <t>Turquoise I</t>
-  </si>
-  <si>
     <t xml:space="preserve">TE, cirrhotic </t>
   </si>
   <si>
@@ -236,30 +194,18 @@
     <t>&gt;11</t>
   </si>
   <si>
-    <t>PrO/RBV</t>
-  </si>
-  <si>
     <t>10-100</t>
   </si>
   <si>
     <t>&gt;100</t>
   </si>
   <si>
-    <t>real world, retrospective</t>
-  </si>
-  <si>
-    <t>PIB/PTV/r/RBV</t>
-  </si>
-  <si>
     <t>Phase 2, non cirrhotic</t>
   </si>
   <si>
     <t>prev PR; cirrhosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Phase 2 </t>
-  </si>
-  <si>
     <t>168H</t>
   </si>
   <si>
@@ -411,6 +357,66 @@
   </si>
   <si>
     <t>54A+156S</t>
+  </si>
+  <si>
+    <t>Case report*</t>
+  </si>
+  <si>
+    <t>Real world study*</t>
+  </si>
+  <si>
+    <t>Pooled1</t>
+  </si>
+  <si>
+    <t>PEARL-I</t>
+  </si>
+  <si>
+    <t>Pooled3</t>
+  </si>
+  <si>
+    <t>Pooled2</t>
+  </si>
+  <si>
+    <t>TURQUOISE-II</t>
+  </si>
+  <si>
+    <t>SAPPHIRE-II</t>
+  </si>
+  <si>
+    <t>TURQUOISE-I</t>
+  </si>
+  <si>
+    <t>Retrospective real world study*</t>
+  </si>
+  <si>
+    <t>NCT02068222</t>
+  </si>
+  <si>
+    <t>M12-536</t>
+  </si>
+  <si>
+    <t>PIB_PTV_r_RBV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_RBV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_DSV_RBV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_DSV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV</t>
+  </si>
+  <si>
+    <t>PTV_r_OBV_DSV;PTV_r_OBV_DSV_RBV</t>
+  </si>
+  <si>
+    <t>EASL_2016_Abs_LBP503</t>
+  </si>
+  <si>
+    <t>ec50</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -530,6 +536,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,10 +862,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O146" sqref="O146"/>
-      <selection pane="bottomLeft" activeCell="O103" sqref="O103"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -861,7 +876,7 @@
     <col min="4" max="8" width="8.83203125" style="14" customWidth="1"/>
     <col min="9" max="9" width="16" style="14" customWidth="1"/>
     <col min="10" max="10" width="28.33203125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" style="14" customWidth="1"/>
     <col min="12" max="12" width="18.1640625" style="14" customWidth="1"/>
     <col min="13" max="13" width="17.1640625" style="14" customWidth="1"/>
     <col min="14" max="14" width="18.83203125" style="14" customWidth="1"/>
@@ -895,66 +910,68 @@
         <v>7</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="2" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O2" s="7">
         <v>30882744</v>
@@ -963,40 +980,42 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="2" t="s">
-        <v>68</v>
+      <c r="J3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O3" s="8">
         <v>30485638</v>
@@ -1005,36 +1024,38 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1045,38 +1066,38 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>110</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="6"/>
@@ -1087,38 +1108,38 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="6"/>
@@ -1129,38 +1150,38 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="6"/>
@@ -1171,38 +1192,38 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="6"/>
@@ -1213,38 +1234,38 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="6"/>
@@ -1255,38 +1276,38 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="6"/>
@@ -1297,38 +1318,38 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="6"/>
@@ -1339,38 +1360,38 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="6"/>
@@ -1381,38 +1402,38 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="6"/>
@@ -1423,38 +1444,38 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="6"/>
@@ -1465,38 +1486,38 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="6"/>
@@ -1507,20 +1528,20 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I16" s="2">
         <v>313</v>
@@ -1537,20 +1558,20 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I17" s="2">
         <v>8</v>
@@ -1567,20 +1588,20 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I18" s="2">
         <v>313</v>
@@ -1597,20 +1618,20 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I19" s="13">
         <v>12533</v>
@@ -1627,38 +1648,38 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="6"/>
@@ -1669,38 +1690,38 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="6"/>
@@ -1711,38 +1732,38 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="6"/>
@@ -1753,38 +1774,38 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="6"/>
@@ -1795,20 +1816,20 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I24" s="2">
         <v>27</v>
@@ -1825,20 +1846,20 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I25" s="2">
         <v>4</v>
@@ -1855,20 +1876,20 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I26" s="2">
         <v>159</v>
@@ -1885,20 +1906,20 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I27" s="2">
         <v>700</v>
@@ -1915,20 +1936,20 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I28" s="13">
         <v>2472</v>
@@ -1945,156 +1966,156 @@
     </row>
     <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>52</v>
+        <v>113</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>52</v>
+        <v>113</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>39</v>
+        <v>114</v>
+      </c>
+      <c r="K31" t="s">
+        <v>123</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>53</v>
+      <c r="J32" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="2"/>
@@ -2107,34 +2128,34 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>53</v>
+      <c r="J33" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="2"/>
@@ -2145,34 +2166,34 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>53</v>
+      <c r="J34" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="2"/>
@@ -2183,34 +2204,34 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>53</v>
+      <c r="J35" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="2"/>
@@ -2221,34 +2242,34 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>58</v>
+      <c r="J36" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="2"/>
@@ -2259,34 +2280,34 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>58</v>
+      <c r="J37" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="2"/>
@@ -2297,34 +2318,34 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>58</v>
+      <c r="J38" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="2"/>
@@ -2335,20 +2356,20 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I39" s="2">
         <v>3</v>
@@ -2365,20 +2386,20 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I40" s="2">
         <v>2</v>
@@ -2395,20 +2416,20 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I41" s="2">
         <v>2</v>
@@ -2425,20 +2446,20 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I42" s="2">
         <v>20</v>
@@ -2455,20 +2476,20 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I43" s="2">
         <v>3</v>
@@ -2485,20 +2506,20 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I44" s="2">
         <v>2</v>
@@ -2515,20 +2536,20 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I45" s="2">
         <v>2</v>
@@ -2545,20 +2566,20 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I46" s="2">
         <v>14</v>
@@ -2575,20 +2596,20 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I47" s="2">
         <v>37</v>
@@ -2605,20 +2626,20 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I48" s="2">
         <v>7</v>
@@ -2635,20 +2656,20 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I49" s="2">
         <v>7</v>
@@ -2665,20 +2686,20 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I50" s="2">
         <v>11</v>
@@ -2695,20 +2716,20 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I51" s="2">
         <v>17</v>
@@ -2725,20 +2746,20 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I52" s="2">
         <v>50</v>
@@ -2755,20 +2776,20 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I53" s="2">
         <v>14</v>
@@ -2785,20 +2806,20 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I54" s="2">
         <v>62</v>
@@ -2815,20 +2836,20 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I55" s="2">
         <v>13</v>
@@ -2845,20 +2866,20 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I56" s="2">
         <v>96</v>
@@ -2875,20 +2896,20 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I57" s="2">
         <v>219</v>
@@ -2905,20 +2926,20 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I58" s="2">
         <v>79</v>
@@ -2935,20 +2956,20 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I59" s="2">
         <v>19</v>
@@ -2965,20 +2986,20 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I60" s="2">
         <v>40</v>
@@ -2995,20 +3016,20 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I61" s="2">
         <v>7</v>
@@ -3025,20 +3046,20 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I62" s="2">
         <v>27</v>
@@ -3055,20 +3076,20 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I63" s="2">
         <v>4</v>
@@ -3085,20 +3106,20 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I64" s="2">
         <v>76</v>
@@ -3115,20 +3136,20 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I65" s="2">
         <v>49</v>
@@ -3145,20 +3166,20 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I66" s="2">
         <v>159</v>
@@ -3175,20 +3196,20 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I67" s="2">
         <v>337</v>
@@ -3205,23 +3226,23 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -3235,23 +3256,23 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3265,20 +3286,20 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I70" s="2">
         <v>73</v>
@@ -3295,23 +3316,23 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -3325,23 +3346,23 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -3355,23 +3376,23 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -3385,20 +3406,20 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I74" s="2">
         <v>2</v>
@@ -3415,20 +3436,20 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I75" s="2">
         <v>2</v>
@@ -3445,20 +3466,20 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I76" s="2">
         <v>3</v>
@@ -3475,20 +3496,20 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I77" s="2">
         <v>2</v>
@@ -3505,31 +3526,31 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+      <c r="K78" t="s">
+        <v>123</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -3541,23 +3562,23 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -3571,31 +3592,31 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+      <c r="K80" t="s">
+        <v>123</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -3607,23 +3628,23 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -3637,31 +3658,31 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+      <c r="K82" t="s">
+        <v>123</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -3673,31 +3694,31 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+      <c r="K83" t="s">
+        <v>123</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -3709,23 +3730,23 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -3739,31 +3760,31 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C85" s="5">
         <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+      <c r="K85" t="s">
+        <v>123</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -3775,31 +3796,31 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C86" s="5">
         <v>4</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+      <c r="K86" t="s">
+        <v>123</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -3811,10 +3832,10 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C87" s="5">
         <v>4</v>
@@ -3824,10 +3845,10 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -3841,20 +3862,20 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I88" s="2">
         <v>2.9</v>
@@ -3871,20 +3892,20 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I89" s="2">
         <v>2.6</v>
@@ -3901,20 +3922,20 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I90" s="2">
         <v>2.7</v>
@@ -3931,20 +3952,20 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I91" s="2">
         <v>2</v>
@@ -3961,20 +3982,20 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I92" s="2">
         <v>2.2999999999999998</v>
@@ -3991,20 +4012,20 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I93" s="2">
         <v>3.7</v>
@@ -4021,20 +4042,20 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I94" s="2">
         <v>2</v>
@@ -4051,20 +4072,20 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I95" s="2">
         <v>3.5</v>
@@ -4081,20 +4102,20 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I96" s="2">
         <v>15.2</v>
@@ -4111,20 +4132,20 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I97" s="2">
         <v>6</v>
@@ -4141,20 +4162,20 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I98" s="2">
         <v>5.8</v>
@@ -4171,20 +4192,20 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I99" s="2">
         <v>45.6</v>
@@ -4201,20 +4222,20 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I100" s="2">
         <v>3</v>
@@ -4231,20 +4252,20 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I101" s="2">
         <v>2.5</v>
@@ -4261,20 +4282,20 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I102" s="2">
         <v>2.9</v>
@@ -4291,20 +4312,20 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I103" s="2">
         <v>14.1</v>
@@ -4321,20 +4342,20 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I104" s="2">
         <v>5.7</v>
@@ -4351,20 +4372,20 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I105" s="2">
         <v>14</v>
@@ -4381,20 +4402,20 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I106" s="2">
         <v>2.6</v>
@@ -4411,20 +4432,20 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I107" s="2">
         <v>3.7</v>
@@ -4441,20 +4462,20 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I108" s="2">
         <v>2.7</v>
@@ -4471,20 +4492,20 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I109" s="2">
         <v>3.8</v>
@@ -4501,32 +4522,33 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K110" t="s">
+        <v>120</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2">
@@ -4536,20 +4558,20 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I111" s="5">
         <v>45</v>
@@ -4566,20 +4588,20 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I112" s="5">
         <v>46</v>
@@ -4596,20 +4618,20 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I113" s="5">
         <v>7</v>
@@ -4626,20 +4648,20 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I114" s="5">
         <v>95</v>
@@ -4656,20 +4678,20 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I115" s="5">
         <v>4</v>
@@ -4686,20 +4708,20 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I116" s="5">
         <v>30</v>
@@ -4716,20 +4738,20 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I117" s="5">
         <v>2</v>
@@ -4746,20 +4768,20 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I118" s="5">
         <v>4</v>
@@ -4776,20 +4798,20 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I119" s="5">
         <v>2</v>
@@ -4806,20 +4828,20 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I120" s="5">
         <v>2</v>
@@ -4836,20 +4858,20 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I121" s="2">
         <v>2</v>
@@ -4866,20 +4888,20 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I122" s="2">
         <v>9</v>
@@ -4896,20 +4918,20 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I123" s="2">
         <v>2</v>
@@ -4926,20 +4948,20 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I124" s="2">
         <v>2</v>
@@ -4956,20 +4978,20 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I125" s="2">
         <v>8</v>
@@ -4986,20 +5008,20 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I126" s="2">
         <v>6</v>
@@ -5016,20 +5038,20 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I127" s="2">
         <v>951</v>
@@ -5046,20 +5068,20 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I128" s="2">
         <v>19</v>
@@ -5076,20 +5098,20 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I129" s="2">
         <v>223</v>
@@ -5106,20 +5128,20 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I130" s="2">
         <v>109</v>
@@ -5136,20 +5158,20 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I131" s="2">
         <v>6</v>
@@ -5166,20 +5188,20 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I132" s="2">
         <v>15</v>
@@ -5196,20 +5218,20 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I133" s="2">
         <v>3</v>
@@ -5226,20 +5248,20 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I134" s="2">
         <v>5</v>
@@ -5256,20 +5278,20 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I135" s="2">
         <v>22</v>
@@ -5286,20 +5308,20 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I136" s="2">
         <v>23</v>
@@ -5316,20 +5338,20 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I137" s="2">
         <v>2</v>
@@ -5346,20 +5368,20 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I138" s="2">
         <v>114</v>
@@ -5376,20 +5398,20 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I139" s="2">
         <v>3</v>
@@ -5406,20 +5428,20 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I140" s="2">
         <v>4</v>
@@ -5436,20 +5458,20 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I141" s="2">
         <v>3</v>
@@ -5466,20 +5488,20 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I142" s="2">
         <v>29</v>
@@ -5496,20 +5518,20 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I143" s="2">
         <v>4</v>
@@ -5526,20 +5548,20 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I144" s="2">
         <v>254</v>
@@ -5556,20 +5578,20 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I145" s="2">
         <v>165</v>
@@ -5585,6 +5607,7 @@
       <c r="P145" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H145"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/tabular/contributed/190612 PTV TABLE.xlsx
+++ b/tabular/contributed/190612 PTV TABLE.xlsx
@@ -15,7 +15,7 @@
     <sheet name="PTV" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PTV!$H$1:$H$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PTV!$H$1:$H$147</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="130">
   <si>
     <t>gene</t>
   </si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>ec50</t>
+  </si>
+  <si>
+    <t>2-20</t>
+  </si>
+  <si>
+    <t>20-100</t>
   </si>
 </sst>
 </file>
@@ -860,12 +866,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O146" sqref="O146"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3697,29 +3703,23 @@
         <v>31</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K83" t="s">
-        <v>123</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -3738,18 +3738,24 @@
       <c r="C84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K84" t="s">
+        <v>123</v>
+      </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -3763,29 +3769,23 @@
         <v>31</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" s="5">
-        <v>4</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K85" t="s">
-        <v>123</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -3799,7 +3799,7 @@
         <v>31</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C86" s="5">
         <v>4</v>
@@ -3835,7 +3835,7 @@
         <v>31</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C87" s="5">
         <v>4</v>
@@ -3848,10 +3848,10 @@
         <v>33</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="K87"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -3865,28 +3865,34 @@
         <v>31</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C88" s="5">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I88" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88" t="s">
+        <v>123</v>
+      </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2">
-        <v>27021330</v>
+        <v>29146520</v>
       </c>
       <c r="P88" s="2"/>
     </row>
@@ -3895,10 +3901,10 @@
         <v>31</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>26</v>
+        <v>58</v>
+      </c>
+      <c r="C89" s="5">
+        <v>4</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3907,8 +3913,8 @@
       <c r="H89" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I89" s="2">
-        <v>2.6</v>
+      <c r="I89" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -3916,7 +3922,7 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2">
-        <v>27021330</v>
+        <v>29146520</v>
       </c>
       <c r="P89" s="2"/>
     </row>
@@ -3925,7 +3931,7 @@
         <v>31</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>26</v>
@@ -3938,7 +3944,7 @@
         <v>33</v>
       </c>
       <c r="I90" s="2">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -3955,7 +3961,7 @@
         <v>31</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>26</v>
@@ -3968,7 +3974,7 @@
         <v>33</v>
       </c>
       <c r="I91" s="2">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -3985,7 +3991,7 @@
         <v>31</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>26</v>
@@ -3998,7 +4004,7 @@
         <v>33</v>
       </c>
       <c r="I92" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -4015,7 +4021,7 @@
         <v>31</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>26</v>
@@ -4028,7 +4034,7 @@
         <v>33</v>
       </c>
       <c r="I93" s="2">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -4045,7 +4051,7 @@
         <v>31</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>26</v>
@@ -4058,7 +4064,7 @@
         <v>33</v>
       </c>
       <c r="I94" s="2">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -4075,10 +4081,10 @@
         <v>31</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -4088,7 +4094,7 @@
         <v>33</v>
       </c>
       <c r="I95" s="2">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -4105,10 +4111,10 @@
         <v>31</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -4118,7 +4124,7 @@
         <v>33</v>
       </c>
       <c r="I96" s="2">
-        <v>15.2</v>
+        <v>2</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -4135,10 +4141,10 @@
         <v>31</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -4148,7 +4154,7 @@
         <v>33</v>
       </c>
       <c r="I97" s="2">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -4165,10 +4171,10 @@
         <v>31</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -4178,7 +4184,7 @@
         <v>33</v>
       </c>
       <c r="I98" s="2">
-        <v>5.8</v>
+        <v>15.2</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -4195,10 +4201,10 @@
         <v>31</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -4208,7 +4214,7 @@
         <v>33</v>
       </c>
       <c r="I99" s="2">
-        <v>45.6</v>
+        <v>6</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -4225,10 +4231,10 @@
         <v>31</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -4238,7 +4244,7 @@
         <v>33</v>
       </c>
       <c r="I100" s="2">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -4255,10 +4261,10 @@
         <v>31</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -4268,7 +4274,7 @@
         <v>33</v>
       </c>
       <c r="I101" s="2">
-        <v>2.5</v>
+        <v>45.6</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
@@ -4285,7 +4291,7 @@
         <v>31</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>28</v>
@@ -4298,7 +4304,7 @@
         <v>33</v>
       </c>
       <c r="I102" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -4315,10 +4321,10 @@
         <v>31</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -4328,7 +4334,7 @@
         <v>33</v>
       </c>
       <c r="I103" s="2">
-        <v>14.1</v>
+        <v>2.5</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -4345,10 +4351,10 @@
         <v>31</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -4358,7 +4364,7 @@
         <v>33</v>
       </c>
       <c r="I104" s="2">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -4375,7 +4381,7 @@
         <v>31</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>27</v>
@@ -4388,7 +4394,7 @@
         <v>33</v>
       </c>
       <c r="I105" s="2">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -4405,10 +4411,10 @@
         <v>31</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4418,7 +4424,7 @@
         <v>33</v>
       </c>
       <c r="I106" s="2">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -4435,7 +4441,7 @@
         <v>31</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>27</v>
@@ -4448,7 +4454,7 @@
         <v>33</v>
       </c>
       <c r="I107" s="2">
-        <v>3.7</v>
+        <v>14</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -4465,10 +4471,10 @@
         <v>31</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -4478,7 +4484,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="2">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -4495,10 +4501,10 @@
         <v>31</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4508,7 +4514,7 @@
         <v>33</v>
       </c>
       <c r="I109" s="2">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -4525,46 +4531,40 @@
         <v>31</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K110" t="s">
-        <v>120</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I110" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2">
-        <v>26778412</v>
+        <v>27021330</v>
       </c>
       <c r="P110" s="2"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -4573,8 +4573,8 @@
       <c r="H111" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I111" s="5">
-        <v>45</v>
+      <c r="I111" s="2">
+        <v>3.8</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
@@ -4582,37 +4582,43 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2">
-        <v>26392503</v>
+        <v>27021330</v>
       </c>
       <c r="P111" s="2"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I112" s="5">
-        <v>46</v>
-      </c>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K112" t="s">
+        <v>120</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2">
-        <v>26392503</v>
+        <v>26778412</v>
       </c>
       <c r="P112" s="2"/>
     </row>
@@ -4624,7 +4630,7 @@
         <v>70</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -4634,7 +4640,7 @@
         <v>33</v>
       </c>
       <c r="I113" s="5">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -4654,7 +4660,7 @@
         <v>70</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -4664,7 +4670,7 @@
         <v>33</v>
       </c>
       <c r="I114" s="5">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
@@ -4684,7 +4690,7 @@
         <v>70</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4694,7 +4700,7 @@
         <v>33</v>
       </c>
       <c r="I115" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -4711,7 +4717,7 @@
         <v>31</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>15</v>
@@ -4724,7 +4730,7 @@
         <v>33</v>
       </c>
       <c r="I116" s="5">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
@@ -4741,10 +4747,10 @@
         <v>31</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -4754,7 +4760,7 @@
         <v>33</v>
       </c>
       <c r="I117" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
@@ -4771,7 +4777,7 @@
         <v>31</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>15</v>
@@ -4784,7 +4790,7 @@
         <v>33</v>
       </c>
       <c r="I118" s="5">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -4801,10 +4807,10 @@
         <v>31</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -4834,7 +4840,7 @@
         <v>92</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -4844,7 +4850,7 @@
         <v>33</v>
       </c>
       <c r="I120" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -4864,7 +4870,7 @@
         <v>92</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -4873,7 +4879,7 @@
       <c r="H121" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121" s="5">
         <v>2</v>
       </c>
       <c r="J121" s="2"/>
@@ -4891,10 +4897,10 @@
         <v>31</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -4903,8 +4909,8 @@
       <c r="H122" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I122" s="2">
-        <v>9</v>
+      <c r="I122" s="5">
+        <v>2</v>
       </c>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
@@ -4921,10 +4927,10 @@
         <v>31</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -4954,7 +4960,7 @@
         <v>87</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -4964,7 +4970,7 @@
         <v>33</v>
       </c>
       <c r="I124" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
@@ -4984,7 +4990,7 @@
         <v>87</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -4994,7 +5000,7 @@
         <v>33</v>
       </c>
       <c r="I125" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
@@ -5014,7 +5020,7 @@
         <v>87</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5024,7 +5030,7 @@
         <v>33</v>
       </c>
       <c r="I126" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
@@ -5041,10 +5047,10 @@
         <v>31</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5054,7 +5060,7 @@
         <v>33</v>
       </c>
       <c r="I127" s="2">
-        <v>951</v>
+        <v>8</v>
       </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
@@ -5071,10 +5077,10 @@
         <v>31</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5084,7 +5090,7 @@
         <v>33</v>
       </c>
       <c r="I128" s="2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
@@ -5104,7 +5110,7 @@
         <v>59</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5114,7 +5120,7 @@
         <v>33</v>
       </c>
       <c r="I129" s="2">
-        <v>223</v>
+        <v>951</v>
       </c>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
@@ -5134,7 +5140,7 @@
         <v>59</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5144,7 +5150,7 @@
         <v>33</v>
       </c>
       <c r="I130" s="2">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
@@ -5161,10 +5167,10 @@
         <v>31</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5174,7 +5180,7 @@
         <v>33</v>
       </c>
       <c r="I131" s="2">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
@@ -5191,10 +5197,10 @@
         <v>31</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5204,7 +5210,7 @@
         <v>33</v>
       </c>
       <c r="I132" s="2">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
@@ -5224,7 +5230,7 @@
         <v>66</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5234,7 +5240,7 @@
         <v>33</v>
       </c>
       <c r="I133" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
@@ -5251,10 +5257,10 @@
         <v>31</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5264,7 +5270,7 @@
         <v>33</v>
       </c>
       <c r="I134" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
@@ -5281,7 +5287,7 @@
         <v>31</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>28</v>
@@ -5294,7 +5300,7 @@
         <v>33</v>
       </c>
       <c r="I135" s="2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
@@ -5311,7 +5317,7 @@
         <v>31</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>26</v>
@@ -5324,7 +5330,7 @@
         <v>33</v>
       </c>
       <c r="I136" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
@@ -5341,10 +5347,10 @@
         <v>31</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5354,7 +5360,7 @@
         <v>33</v>
       </c>
       <c r="I137" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
@@ -5374,7 +5380,7 @@
         <v>57</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5384,7 +5390,7 @@
         <v>33</v>
       </c>
       <c r="I138" s="2">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
@@ -5401,10 +5407,10 @@
         <v>31</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5414,7 +5420,7 @@
         <v>33</v>
       </c>
       <c r="I139" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
@@ -5431,7 +5437,7 @@
         <v>31</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>27</v>
@@ -5444,7 +5450,7 @@
         <v>33</v>
       </c>
       <c r="I140" s="2">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
@@ -5464,7 +5470,7 @@
         <v>80</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5491,10 +5497,10 @@
         <v>31</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5504,7 +5510,7 @@
         <v>33</v>
       </c>
       <c r="I142" s="2">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
@@ -5521,10 +5527,10 @@
         <v>31</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5534,7 +5540,7 @@
         <v>33</v>
       </c>
       <c r="I143" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
@@ -5554,7 +5560,7 @@
         <v>58</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5564,7 +5570,7 @@
         <v>33</v>
       </c>
       <c r="I144" s="2">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
@@ -5584,7 +5590,7 @@
         <v>58</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5594,7 +5600,7 @@
         <v>33</v>
       </c>
       <c r="I145" s="2">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
@@ -5606,8 +5612,68 @@
       </c>
       <c r="P145" s="2"/>
     </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" s="2">
+        <v>254</v>
+      </c>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2">
+        <v>26392503</v>
+      </c>
+      <c r="P146" s="2"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I147" s="2">
+        <v>165</v>
+      </c>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2">
+        <v>26392503</v>
+      </c>
+      <c r="P147" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="H1:H145"/>
+  <autoFilter ref="H1:H147"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
